--- a/municipal/ENG/Demography/Suicide rate/Khobi.xlsx
+++ b/municipal/ENG/Demography/Suicide rate/Khobi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ინგლისური\cx 33 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\-Suicide rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F154D-E023-4740-B07A-A199C00469D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEFD1BC-E1CB-4626-82CC-54601CCD7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="90" windowWidth="12840" windowHeight="12885" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="27045" windowHeight="7785" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (4)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,12 +329,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +350,18 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -653,12 +659,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1099,42 +1105,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="26" customWidth="1"/>
-    <col min="3" max="44" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="13.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="24" customWidth="1"/>
+    <col min="3" max="44" width="5.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1194,26 +1200,45 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>2021</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>10.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="30">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="27">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>8</v>
       </c>
     </row>
